--- a/structure_logic_sheet.xlsx
+++ b/structure_logic_sheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Clubbing logic</t>
   </si>
@@ -79,7 +79,7 @@
     <t>as well.</t>
   </si>
   <si>
-    <t>&lt;name&gt;, &lt;age&gt; yrs, presented to &lt;location_data&gt; with issue(s) of  &lt;category_logic&gt;. &lt;gender_pronoun&gt; was accompanied by &lt;accompanied_by&gt;</t>
+    <t>&lt;name&gt;, &lt;age&gt; yrs, presented to &lt;location_data&gt; with issue(s) of &lt;category_logic&gt;. &lt;gender_pron&gt; was accompanied by &lt;accompanied_by&gt;</t>
   </si>
   <si>
     <t>Lakeside Insurance Fulfillment Centre</t>
@@ -88,6 +88,12 @@
     <t>Covid-19 Claims</t>
   </si>
   <si>
+    <t>Mother Issue Claims</t>
+  </si>
+  <si>
+    <t>Genetic Claims</t>
+  </si>
+  <si>
     <t>Logic-2</t>
   </si>
   <si>
@@ -97,7 +103,7 @@
     <t>mentions</t>
   </si>
   <si>
-    <t>&lt;gender_pronoun&gt;</t>
+    <t>&lt;gender_pron&gt;</t>
   </si>
   <si>
     <t>Besides,</t>
@@ -242,15 +248,15 @@
     <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -496,161 +502,170 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="J2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="D4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="B5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="8" t="s">
+      <c r="A6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="B6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>44</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>46</v>
+      <c r="A8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1"/>

--- a/structure_logic_sheet.xlsx
+++ b/structure_logic_sheet.xlsx
@@ -79,7 +79,7 @@
     <t>as well.</t>
   </si>
   <si>
-    <t>&lt;name&gt;, &lt;age&gt; yrs, presented to &lt;location_data&gt; with issue(s) of &lt;category_logic&gt;. &lt;gender_pron&gt; was accompanied by &lt;accompanied_by&gt;</t>
+    <t>&lt;name&gt;, &lt;age&gt; yrs, presented to &lt;location_data&gt; with issue(s) of &lt;category_logic&gt;. &lt;gender_pron&gt; was accompanied by &lt;gender_det&gt; &lt;accompanied_by&gt;</t>
   </si>
   <si>
     <t>Lakeside Insurance Fulfillment Centre</t>
@@ -237,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -253,9 +253,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -560,10 +557,10 @@
       <c r="I2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="6"/>
@@ -580,7 +577,7 @@
       <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -616,7 +613,7 @@
       <c r="A5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="4"/>
@@ -629,13 +626,13 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="4"/>
       <c r="E6" s="6" t="s">
         <v>43</v>

--- a/structure_logic_sheet.xlsx
+++ b/structure_logic_sheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Clubbing logic</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Also-2 logic</t>
   </si>
   <si>
+    <t>OC logic</t>
+  </si>
+  <si>
     <t>OS logic</t>
   </si>
   <si>
@@ -64,7 +67,7 @@
     <t>Logic-1</t>
   </si>
   <si>
-    <t>There was no history of</t>
+    <t>there was no history of</t>
   </si>
   <si>
     <t>describes</t>
@@ -79,6 +82,9 @@
     <t>as well.</t>
   </si>
   <si>
+    <t>Furthermore</t>
+  </si>
+  <si>
     <t>&lt;name&gt;, &lt;age&gt; yrs, presented to &lt;location_data&gt; with issue(s) of &lt;category_logic&gt;. &lt;gender_pron&gt; was accompanied by &lt;gender_det&gt; &lt;accompanied_by&gt;</t>
   </si>
   <si>
@@ -97,7 +103,7 @@
     <t>Logic-2</t>
   </si>
   <si>
-    <t>There was no report of</t>
+    <t>there was no report of</t>
   </si>
   <si>
     <t>mentions</t>
@@ -112,19 +118,25 @@
     <t>too.</t>
   </si>
   <si>
+    <t>In addition</t>
+  </si>
+  <si>
     <t>Logic-3</t>
   </si>
   <si>
-    <t>There was no mention of</t>
+    <t>there was no mention of</t>
   </si>
   <si>
     <t>gives history of</t>
   </si>
   <si>
-    <t>The patient</t>
+    <t>the patient</t>
   </si>
   <si>
     <t>Furthermore,</t>
+  </si>
+  <si>
+    <t>Similarly</t>
   </si>
   <si>
     <t>Logic-4</t>
@@ -237,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -247,6 +259,9 @@
     </xf>
     <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -473,8 +488,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="14.43"/>
     <col customWidth="1" min="2" max="2" width="50.71"/>
-    <col customWidth="1" min="3" max="6" width="14.43"/>
-    <col customWidth="1" min="7" max="7" width="25.86"/>
+    <col customWidth="1" min="3" max="7" width="14.43"/>
+    <col customWidth="1" min="8" max="8" width="25.86"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -493,7 +508,7 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -526,143 +541,157 @@
       <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3"/>
+      <c r="R1" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="K2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="E3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="A5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="A6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>46</v>
+      <c r="A7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>48</v>
+      <c r="A8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1"/>
